--- a/Data/Figure 3/Mouse weight & GTT/Weight&GTTCohort2.xlsx
+++ b/Data/Figure 3/Mouse weight & GTT/Weight&GTTCohort2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2122077717052/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure 3\Mouse weight &amp; GTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{9941F2DB-5D0A-4245-A8C5-44BF1EBE03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3122BABA-60B3-4291-B14F-D375F4AFD01B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAAFC3-C8DC-4102-91BB-F0B11551F3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2197215B-64E2-46CD-9E46-6556A9BFA39E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2197215B-64E2-46CD-9E46-6556A9BFA39E}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="39">
   <si>
     <t>Mice</t>
   </si>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BC7C5F-046B-4F9E-B94E-ABDDA46AE673}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,8 +587,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>793</v>
+      <c r="A2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -601,8 +601,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>793</v>
+      <c r="A3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -615,8 +615,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>793</v>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -629,8 +629,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>793</v>
+      <c r="A5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -643,8 +643,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>793</v>
+      <c r="A6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -657,8 +657,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>159</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -671,8 +671,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>159</v>
+      <c r="A8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -685,8 +685,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>159</v>
+      <c r="A9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -699,8 +699,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>159</v>
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -713,8 +713,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>159</v>
+      <c r="A11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -867,8 +867,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>793</v>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -881,8 +881,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>793</v>
+      <c r="A23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -895,8 +895,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>793</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
@@ -909,8 +909,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>793</v>
+      <c r="A25" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -923,8 +923,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>793</v>
+      <c r="A26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -937,8 +937,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>159</v>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -951,8 +951,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>159</v>
+      <c r="A28" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -965,8 +965,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>159</v>
+      <c r="A29" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -979,8 +979,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>159</v>
+      <c r="A30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
@@ -993,8 +993,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>159</v>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
@@ -1147,8 +1147,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>793</v>
+      <c r="A42" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
@@ -1161,8 +1161,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>793</v>
+      <c r="A43" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
@@ -1175,8 +1175,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>793</v>
+      <c r="A44" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>13</v>
@@ -1189,8 +1189,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>793</v>
+      <c r="A45" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
@@ -1203,8 +1203,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>793</v>
+      <c r="A46" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
@@ -1217,8 +1217,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>159</v>
+      <c r="A47" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
@@ -1231,8 +1231,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>159</v>
+      <c r="A48" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
@@ -1245,8 +1245,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>159</v>
+      <c r="A49" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>13</v>
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>159</v>
+      <c r="A50" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
@@ -1273,8 +1273,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>159</v>
+      <c r="A51" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>13</v>
@@ -1427,8 +1427,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>793</v>
+      <c r="A62" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
@@ -1441,8 +1441,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>793</v>
+      <c r="A63" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>13</v>
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>793</v>
+      <c r="A64" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>13</v>
@@ -1469,8 +1469,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>793</v>
+      <c r="A65" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
@@ -1483,8 +1483,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>793</v>
+      <c r="A66" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>13</v>
@@ -1497,8 +1497,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>159</v>
+      <c r="A67" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>13</v>
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>159</v>
+      <c r="A68" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>13</v>
@@ -1525,8 +1525,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>159</v>
+      <c r="A69" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>13</v>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>159</v>
+      <c r="A70" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -1553,8 +1553,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>159</v>
+      <c r="A71" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>13</v>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>793</v>
+      <c r="A82" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>13</v>
@@ -1721,8 +1721,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>793</v>
+      <c r="A83" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>13</v>
@@ -1735,8 +1735,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>793</v>
+      <c r="A84" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>13</v>
@@ -1749,8 +1749,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>793</v>
+      <c r="A85" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>13</v>
@@ -1763,8 +1763,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>793</v>
+      <c r="A86" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>13</v>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>159</v>
+      <c r="A87" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>13</v>
@@ -1791,8 +1791,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>159</v>
+      <c r="A88" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>13</v>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>159</v>
+      <c r="A89" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>13</v>
@@ -1819,8 +1819,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>159</v>
+      <c r="A90" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>13</v>
@@ -1833,8 +1833,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>159</v>
+      <c r="A91" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>13</v>
@@ -1987,8 +1987,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>793</v>
+      <c r="A102" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>13</v>
@@ -2001,8 +2001,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>793</v>
+      <c r="A103" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>13</v>
@@ -2015,8 +2015,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>793</v>
+      <c r="A104" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>13</v>
@@ -2029,8 +2029,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>793</v>
+      <c r="A105" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>13</v>
@@ -2043,8 +2043,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>793</v>
+      <c r="A106" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>13</v>
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>159</v>
+      <c r="A107" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>13</v>
@@ -2071,8 +2071,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>159</v>
+      <c r="A108" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>13</v>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>159</v>
+      <c r="A109" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>13</v>
@@ -2099,8 +2099,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>159</v>
+      <c r="A110" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>13</v>
@@ -2113,8 +2113,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>159</v>
+      <c r="A111" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>13</v>
@@ -2267,8 +2267,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>793</v>
+      <c r="A122" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>13</v>
@@ -2281,8 +2281,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>793</v>
+      <c r="A123" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>13</v>
@@ -2295,8 +2295,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>793</v>
+      <c r="A124" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>13</v>
@@ -2309,8 +2309,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>793</v>
+      <c r="A125" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>13</v>
@@ -2323,8 +2323,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>793</v>
+      <c r="A126" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -2337,8 +2337,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>159</v>
+      <c r="A127" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>13</v>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>159</v>
+      <c r="A128" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>13</v>
@@ -2365,8 +2365,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>159</v>
+      <c r="A129" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>13</v>
@@ -2379,8 +2379,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>159</v>
+      <c r="A130" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>13</v>
@@ -2393,8 +2393,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>159</v>
+      <c r="A131" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>13</v>
@@ -2547,8 +2547,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>793</v>
+      <c r="A142" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>13</v>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
-        <v>793</v>
+      <c r="A143" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>13</v>
@@ -2575,8 +2575,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
-        <v>793</v>
+      <c r="A144" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>13</v>
@@ -2589,8 +2589,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
-        <v>793</v>
+      <c r="A145" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>13</v>
@@ -2603,8 +2603,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
-        <v>793</v>
+      <c r="A146" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>13</v>
@@ -2617,8 +2617,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
-        <v>159</v>
+      <c r="A147" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>13</v>
@@ -2631,8 +2631,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
-        <v>159</v>
+      <c r="A148" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>13</v>
@@ -2645,8 +2645,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>159</v>
+      <c r="A149" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>13</v>
@@ -2659,8 +2659,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
-        <v>159</v>
+      <c r="A150" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>13</v>
@@ -2673,8 +2673,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
-        <v>159</v>
+      <c r="A151" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>13</v>
@@ -2827,8 +2827,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
-        <v>793</v>
+      <c r="A162" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>13</v>
@@ -2841,8 +2841,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
-        <v>793</v>
+      <c r="A163" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>13</v>
@@ -2855,8 +2855,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
-        <v>793</v>
+      <c r="A164" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>13</v>
@@ -2869,8 +2869,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
-        <v>793</v>
+      <c r="A165" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>13</v>
@@ -2883,8 +2883,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
-        <v>793</v>
+      <c r="A166" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>13</v>
@@ -2897,8 +2897,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
-        <v>159</v>
+      <c r="A167" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>13</v>
@@ -2911,8 +2911,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
-        <v>159</v>
+      <c r="A168" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>13</v>
@@ -2925,8 +2925,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
-        <v>159</v>
+      <c r="A169" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>13</v>
@@ -2939,8 +2939,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
-        <v>159</v>
+      <c r="A170" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>13</v>
@@ -2953,8 +2953,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
-        <v>159</v>
+      <c r="A171" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>13</v>
@@ -3115,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43BBF1-97BD-43A1-B3F7-CB758DBB7D79}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -6168,12 +6168,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="afb2a5ad-58d9-4e2b-8927-e9e6a6f32944" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6398,17 +6397,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="afb2a5ad-58d9-4e2b-8927-e9e6a6f32944" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA683CE-1C66-495C-B415-AE7EB6D3803A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7B0A92-6AE3-4754-A87C-9BC386EADEAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b159d527-15c9-467a-b762-1e479e1f7549"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="afb2a5ad-58d9-4e2b-8927-e9e6a6f32944"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6433,18 +6442,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7B0A92-6AE3-4754-A87C-9BC386EADEAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA683CE-1C66-495C-B415-AE7EB6D3803A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b159d527-15c9-467a-b762-1e479e1f7549"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="afb2a5ad-58d9-4e2b-8927-e9e6a6f32944"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>